--- a/medicine/Enfance/Rachel_Cosgrove_Payes/Rachel_Cosgrove_Payes.xlsx
+++ b/medicine/Enfance/Rachel_Cosgrove_Payes/Rachel_Cosgrove_Payes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rachel Cosgrove Payes, née le 11 décembre 1922 à Westernport (Maryland), et morte le 10 octobre 1998 à Brick Township, New Jersey, est une romancière américaine, auteur de roman policier, de roman d'amour et de littérature d'enfance et de jeunesse sous la signature Rachel C. Payes. Elle a également publié des œuvres sous les pseudonymes E.L. Arch, Joanne Kaye et Rachel Cosgrove.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait des études en sciences dans un établissement de la Virginie de l'Ouest. En septembre 1954, elle épouse Norman Payes, un chercheur scientifique. Entre 1945 et 1957, elle travaille d'abord comme technicienne dans un hôpital, puis comme chercheuse en biologie pour le compte d’un laboratoire pharmaceutique. Dans les années 1960, elle se consacre entièrement à l’écriture.
 Elle amorce sa carrière littéraire en 1951 par la publication de The Hidden Valley of Oz, un des volumes de la série du pays d’Oz, fondée sur le roman Le Magicien d’Oz (1900) de L. Frank Baum. Entre 1960 et 1968, elle donne sept romans policiers qui appartiennent au genre du Si J'Avais Su (Had I but known (en)), où une jeune héroïne se trouve mêlée à de sombres affaires criminelles. Dans les années 1970, Rachel C. Payes se spécialise dans le roman gothique.
@@ -548,18 +562,102 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Seven Sisters
-Love's Charade (1981)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Seven Sisters</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Love's Charade (1981)
 Love's Renegade (1981)
 Love's Promenade (1981)
 Love's Serenade (1981)
-Love's Escapade (1981)
-Série Oz
-The Hidden Valley of Oz (1951)
-The Wicked Witch of Oz (1993)
-Autres romans
-Death Sleeps Lightly (1960)
+Love's Escapade (1981)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Oz</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Hidden Valley of Oz (1951)
+The Wicked Witch of Oz (1993)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Death Sleeps Lightly (1960)
 Forsythia Finds Murder (1960)
 Shadow of Fear (1961)
 Curiosity Killed Kitty (1962)
@@ -580,36 +678,225 @@
 Satan's Mistress (1981)
 Lady Alicia's Secret (1986)
 Emeralds and Jade (1988)
-The Dark Towers of Trelochen (1991)
-Romans signés E.L. Arch
-Bridge to Yesterday (1963)
+The Dark Towers of Trelochen (1991)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Romans signés E.L. Arch</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bridge to Yesterday (1963)
 The Deathstones (1964)
 Planet of Death (1964)
 The First Immortals (1965)
 The Double-Minded Man (1966)
-The Man with Three Eyes (1967)
-Romans signés Joanne Kaye
-Fame and Fortune (1981)
+The Man with Three Eyes (1967)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Romans signés Joanne Kaye</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fame and Fortune (1981)
 Rag to Riches (1981)
 Love and Betrayal (1981)
 Satin and Stars (1981)
 Playing for Keeps (1982)
-To Love Again (1982)
-Romans signés Rachel Cosgrove
-Marjory Thurman: Lab Techinician (1960)
+To Love Again (1982)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Romans signés Rachel Cosgrove</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Marjory Thurman: Lab Techinician (1960)
 Long Journey Home (1962)
 Not for Glory (1963)
 The Candystripers (1964)
 Ann Gordon of the Peace Corps (1965)
 Designs for Love (1966)
-Linda’s Gifts (1966)
-Nouvelles
-Nouvelles de la série Oz
-Percy and the Shrinking Violet (1995)
+Linda’s Gifts (1966)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Nouvelles de la série Oz</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Percy and the Shrinking Violet (1995)
 Spots in Oz (1997)
-Rocket Trip to Oz (2000)
-Autres nouvelles isolées
-The Door (1964)
+Rocket Trip to Oz (2000)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Autres nouvelles isolées</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>The Door (1964)
 The Spy Game (1966)
 Private Phone (1970)
 And the Power (1972)
@@ -628,9 +915,43 @@
 Escape to the Suburbs (1978)
 Flee to the Montains (1982)
 The Vision (1988)
-Mother Calls But I Dot Not Answer (1988)
-Autres publications
-To the Children (1951)
+Mother Calls But I Dot Not Answer (1988)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>To the Children (1951)
 Acrostic Puzzle, vol. 1 (1979)
 Acrostic Puzzle, vol. 2 (1981)
 Acrostic Puzzle, vol. 3 (1981)
@@ -638,31 +959,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Rachel_Cosgrove_Payes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rachel_Cosgrove_Payes</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rachel_Cosgrove_Payes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Jacques Baudou et Jean-Jacques Schleret, Le Vrai Visage du Masque, vol. 1, Paris, Futuropolis, 1984, 476 p. (OCLC 311506692), p. 341-342.</t>
         </is>
